--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/WASHINGTON_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/WASHINGTON_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1289"/>
+  <dimension ref="A1:D1283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C9">
@@ -758,7 +758,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C29">
@@ -875,7 +875,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C38">
@@ -1057,7 +1057,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C52">
@@ -1096,7 +1096,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C55">
@@ -1168,13 +1168,13 @@
         <v>9</v>
       </c>
       <c r="D60">
-        <v>0.0009513742071881607</v>
+        <v>0.0009513742071881608</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C61">
@@ -1517,7 +1517,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C87">
@@ -1795,7 +1795,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C108">
@@ -1969,7 +1969,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C121">
@@ -1995,7 +1995,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2052,7 +2052,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C127">
@@ -2239,7 +2239,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C141">
@@ -2343,7 +2343,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C149">
@@ -2421,7 +2421,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C155">
@@ -2434,7 +2434,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C156">
@@ -2447,7 +2447,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C157">
@@ -2538,12 +2538,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C164">
@@ -2582,7 +2582,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C167">
@@ -2595,7 +2595,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C168">
@@ -2660,7 +2660,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C173">
@@ -2725,7 +2725,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C178">
@@ -2764,7 +2764,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C181">
@@ -2816,7 +2816,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C185">
@@ -2868,20 +2868,20 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C189">
         <v>9</v>
       </c>
       <c r="D189">
-        <v>0.0009513742071881607</v>
+        <v>0.0009513742071881608</v>
       </c>
     </row>
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C190">
@@ -2972,7 +2972,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C197">
@@ -3076,7 +3076,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C205">
@@ -3102,7 +3102,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C207">
@@ -3245,7 +3245,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C218">
@@ -3297,7 +3297,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C222">
@@ -3310,7 +3310,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C223">
@@ -3323,7 +3323,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C224">
@@ -3419,7 +3419,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C231">
@@ -3432,7 +3432,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C232">
@@ -3510,7 +3510,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C238">
@@ -3562,7 +3562,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C242">
@@ -3705,7 +3705,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C253">
@@ -3731,7 +3731,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C255">
@@ -3757,7 +3757,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C257">
@@ -3822,7 +3822,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C262">
@@ -3905,7 +3905,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C268">
@@ -3931,7 +3931,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C270">
@@ -3944,7 +3944,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C271">
@@ -3983,7 +3983,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C274">
@@ -4009,7 +4009,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C276">
@@ -4022,7 +4022,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C277">
@@ -4061,7 +4061,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C280">
@@ -4074,7 +4074,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C281">
@@ -4087,7 +4087,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C282">
@@ -4100,7 +4100,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C283">
@@ -4159,13 +4159,13 @@
         <v>9</v>
       </c>
       <c r="D287">
-        <v>0.0009513742071881607</v>
+        <v>0.0009513742071881608</v>
       </c>
     </row>
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C288">
@@ -4178,7 +4178,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C289">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C293">
@@ -4243,7 +4243,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C294">
@@ -4263,7 +4263,7 @@
         <v>9</v>
       </c>
       <c r="D295">
-        <v>0.0009513742071881607</v>
+        <v>0.0009513742071881608</v>
       </c>
     </row>
     <row r="296">
@@ -4321,7 +4321,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C300">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C301">
@@ -4360,7 +4360,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C303">
@@ -4373,7 +4373,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C304">
@@ -4399,7 +4399,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C306">
@@ -4438,7 +4438,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C309">
@@ -4497,7 +4497,7 @@
         <v>9</v>
       </c>
       <c r="D313">
-        <v>0.0009513742071881607</v>
+        <v>0.0009513742071881608</v>
       </c>
     </row>
     <row r="314">
@@ -4536,7 +4536,7 @@
         <v>9</v>
       </c>
       <c r="D316">
-        <v>0.0009513742071881607</v>
+        <v>0.0009513742071881608</v>
       </c>
     </row>
     <row r="317">
@@ -4607,7 +4607,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C322">
@@ -4633,7 +4633,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C324">
@@ -4659,14 +4659,14 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C326">
         <v>9</v>
       </c>
       <c r="D326">
-        <v>0.0009513742071881607</v>
+        <v>0.0009513742071881608</v>
       </c>
     </row>
     <row r="327">
@@ -4685,7 +4685,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C328">
@@ -4737,7 +4737,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C332">
@@ -4750,7 +4750,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C333">
@@ -4924,7 +4924,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C346">
@@ -4976,7 +4976,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C350">
@@ -5028,7 +5028,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C354">
@@ -5113,13 +5113,13 @@
         <v>9</v>
       </c>
       <c r="D360">
-        <v>0.0009513742071881607</v>
+        <v>0.0009513742071881608</v>
       </c>
     </row>
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C361">
@@ -5145,7 +5145,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C363">
@@ -5171,7 +5171,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C365">
@@ -5223,7 +5223,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C369">
@@ -5236,7 +5236,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C370">
@@ -5288,7 +5288,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C374">
@@ -5301,7 +5301,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C375">
@@ -5366,7 +5366,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C380">
@@ -5379,7 +5379,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C381">
@@ -5405,7 +5405,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C383">
@@ -5418,7 +5418,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C384">
@@ -5488,7 +5488,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C389">
@@ -5501,7 +5501,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C390">
@@ -5547,7 +5547,7 @@
         <v>9</v>
       </c>
       <c r="D393">
-        <v>0.0009513742071881607</v>
+        <v>0.0009513742071881608</v>
       </c>
     </row>
     <row r="394">
@@ -5566,7 +5566,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C395">
@@ -5605,7 +5605,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C398">
@@ -5631,7 +5631,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C400">
@@ -5774,7 +5774,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C411">
@@ -5787,7 +5787,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C412">
@@ -5865,7 +5865,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C418">
@@ -5943,7 +5943,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C424">
@@ -5956,7 +5956,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C425">
@@ -5995,7 +5995,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C428">
@@ -6015,7 +6015,7 @@
         <v>9</v>
       </c>
       <c r="D429">
-        <v>0.0009513742071881607</v>
+        <v>0.0009513742071881608</v>
       </c>
     </row>
     <row r="430">
@@ -6028,7 +6028,7 @@
         <v>9</v>
       </c>
       <c r="D430">
-        <v>0.0009513742071881607</v>
+        <v>0.0009513742071881608</v>
       </c>
     </row>
     <row r="431">
@@ -6060,7 +6060,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C433">
@@ -6073,7 +6073,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C434">
@@ -6203,7 +6203,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C444">
@@ -6229,7 +6229,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C446">
@@ -6242,7 +6242,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C447">
@@ -6268,7 +6268,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C449">
@@ -6281,7 +6281,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C450">
@@ -6320,7 +6320,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C453">
@@ -6333,7 +6333,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C454">
@@ -6372,7 +6372,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C457">
@@ -6411,7 +6411,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C460">
@@ -6424,7 +6424,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C461">
@@ -6463,7 +6463,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C464">
@@ -6476,7 +6476,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C465">
@@ -6593,7 +6593,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C474">
@@ -6606,7 +6606,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C475">
@@ -6619,7 +6619,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C476">
@@ -6684,7 +6684,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C481">
@@ -6723,7 +6723,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C484">
@@ -6736,7 +6736,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C485">
@@ -6749,7 +6749,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C486">
@@ -6865,7 +6865,7 @@
         <v>92</v>
       </c>
       <c r="D494">
-        <v>0.009725158562367865</v>
+        <v>0.009725158562367863</v>
       </c>
     </row>
     <row r="495">
@@ -7066,7 +7066,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C510">
@@ -7092,7 +7092,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C512">
@@ -7489,7 +7489,7 @@
         <v>92</v>
       </c>
       <c r="D542">
-        <v>0.009725158562367865</v>
+        <v>0.009725158562367863</v>
       </c>
     </row>
     <row r="543">
@@ -7567,7 +7567,7 @@
         <v>9</v>
       </c>
       <c r="D548">
-        <v>0.0009513742071881607</v>
+        <v>0.0009513742071881608</v>
       </c>
     </row>
     <row r="549">
@@ -7879,7 +7879,7 @@
         <v>9</v>
       </c>
       <c r="D572">
-        <v>0.0009513742071881607</v>
+        <v>0.0009513742071881608</v>
       </c>
     </row>
     <row r="573">
@@ -7937,7 +7937,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C577">
@@ -8048,7 +8048,7 @@
         <v>9</v>
       </c>
       <c r="D585">
-        <v>0.0009513742071881607</v>
+        <v>0.0009513742071881608</v>
       </c>
     </row>
     <row r="586">
@@ -8267,7 +8267,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C602">
@@ -8371,7 +8371,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C610">
@@ -8449,7 +8449,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C616">
@@ -8462,7 +8462,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C617">
@@ -8584,7 +8584,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C626">
@@ -8597,7 +8597,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C627">
@@ -8649,7 +8649,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C631">
@@ -8740,7 +8740,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C638">
@@ -8773,7 +8773,7 @@
         <v>9</v>
       </c>
       <c r="D640">
-        <v>0.0009513742071881607</v>
+        <v>0.0009513742071881608</v>
       </c>
     </row>
     <row r="641">
@@ -8953,7 +8953,7 @@
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C654">
@@ -8997,7 +8997,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C657">
@@ -9049,7 +9049,7 @@
     <row r="661">
       <c r="B661" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C661">
@@ -9088,7 +9088,7 @@
     <row r="664">
       <c r="B664" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C664">
@@ -9127,7 +9127,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C667">
@@ -9140,7 +9140,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C668">
@@ -9166,7 +9166,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C670">
@@ -9179,7 +9179,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C671">
@@ -9192,7 +9192,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C672">
@@ -9205,7 +9205,7 @@
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C673">
@@ -9218,7 +9218,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C674">
@@ -9231,7 +9231,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C675">
@@ -9244,7 +9244,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C676">
@@ -9270,7 +9270,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C678">
@@ -9283,7 +9283,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C679">
@@ -9361,7 +9361,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C685">
@@ -9387,7 +9387,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C687">
@@ -9413,7 +9413,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C689">
@@ -9426,7 +9426,7 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C690">
@@ -9439,7 +9439,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C691">
@@ -9452,7 +9452,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C692">
@@ -9478,7 +9478,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C694">
@@ -9816,7 +9816,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C720">
@@ -9959,7 +9959,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>San José del Peñasco</t>
+          <t>San José Del Peñasco</t>
         </is>
       </c>
       <c r="C731">
@@ -9972,7 +9972,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C732">
@@ -10044,7 +10044,7 @@
         <v>9</v>
       </c>
       <c r="D737">
-        <v>0.0009513742071881607</v>
+        <v>0.0009513742071881608</v>
       </c>
     </row>
     <row r="738">
@@ -10505,7 +10505,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C773">
@@ -10635,7 +10635,7 @@
     <row r="783">
       <c r="B783" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C783">
@@ -10674,7 +10674,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C786">
@@ -10804,7 +10804,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C796">
@@ -10824,7 +10824,7 @@
         <v>9</v>
       </c>
       <c r="D797">
-        <v>0.0009513742071881607</v>
+        <v>0.0009513742071881608</v>
       </c>
     </row>
     <row r="798">
@@ -10869,7 +10869,7 @@
     <row r="801">
       <c r="B801" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C801">
@@ -10934,7 +10934,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C806">
@@ -10986,7 +10986,7 @@
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C810">
@@ -11012,7 +11012,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C812">
@@ -11591,7 +11591,7 @@
         <v>9</v>
       </c>
       <c r="D856">
-        <v>0.0009513742071881607</v>
+        <v>0.0009513742071881608</v>
       </c>
     </row>
     <row r="857">
@@ -11623,7 +11623,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C859">
@@ -11766,7 +11766,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C870">
@@ -11779,7 +11779,7 @@
     <row r="871">
       <c r="B871" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C871">
@@ -11792,7 +11792,7 @@
     <row r="872">
       <c r="B872" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C872">
@@ -11805,7 +11805,7 @@
     <row r="873">
       <c r="B873" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C873">
@@ -11818,7 +11818,7 @@
     <row r="874">
       <c r="B874" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C874">
@@ -11831,7 +11831,7 @@
     <row r="875">
       <c r="B875" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C875">
@@ -11844,7 +11844,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C876">
@@ -11857,7 +11857,7 @@
     <row r="877">
       <c r="B877" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C877">
@@ -11870,7 +11870,7 @@
     <row r="878">
       <c r="B878" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C878">
@@ -11883,7 +11883,7 @@
     <row r="879">
       <c r="B879" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C879">
@@ -11896,7 +11896,7 @@
     <row r="880">
       <c r="B880" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C880">
@@ -11909,7 +11909,7 @@
     <row r="881">
       <c r="B881" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C881">
@@ -11922,7 +11922,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C882">
@@ -11935,7 +11935,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C883">
@@ -11955,13 +11955,13 @@
         <v>9</v>
       </c>
       <c r="D884">
-        <v>0.0009513742071881607</v>
+        <v>0.0009513742071881608</v>
       </c>
     </row>
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C885">
@@ -11974,7 +11974,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C886">
@@ -12148,7 +12148,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C899">
@@ -12285,7 +12285,7 @@
         <v>9</v>
       </c>
       <c r="D909">
-        <v>0.0009513742071881607</v>
+        <v>0.0009513742071881608</v>
       </c>
     </row>
     <row r="910">
@@ -12304,7 +12304,7 @@
     <row r="911">
       <c r="B911" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C911">
@@ -12317,7 +12317,7 @@
     <row r="912">
       <c r="B912" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C912">
@@ -12473,7 +12473,7 @@
     <row r="924">
       <c r="B924" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C924">
@@ -12486,7 +12486,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C925">
@@ -12538,7 +12538,7 @@
     <row r="929">
       <c r="B929" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C929">
@@ -12629,7 +12629,7 @@
     <row r="936">
       <c r="B936" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C936">
@@ -12642,7 +12642,7 @@
     <row r="937">
       <c r="B937" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C937">
@@ -12694,7 +12694,7 @@
     <row r="941">
       <c r="B941" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C941">
@@ -12902,7 +12902,7 @@
     <row r="957">
       <c r="B957" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C957">
@@ -12928,7 +12928,7 @@
     <row r="959">
       <c r="B959" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C959">
@@ -12941,7 +12941,7 @@
     <row r="960">
       <c r="B960" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C960">
@@ -13019,7 +13019,7 @@
     <row r="966">
       <c r="B966" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C966">
@@ -13097,7 +13097,7 @@
     <row r="972">
       <c r="B972" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C972">
@@ -13110,7 +13110,7 @@
     <row r="973">
       <c r="B973" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C973">
@@ -13149,7 +13149,7 @@
     <row r="976">
       <c r="B976" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C976">
@@ -13162,7 +13162,7 @@
     <row r="977">
       <c r="B977" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C977">
@@ -13175,7 +13175,7 @@
     <row r="978">
       <c r="B978" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C978">
@@ -13227,7 +13227,7 @@
     <row r="982">
       <c r="B982" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C982">
@@ -13422,7 +13422,7 @@
     <row r="997">
       <c r="B997" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C997">
@@ -13492,7 +13492,7 @@
       </c>
       <c r="B1002" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1002">
@@ -13505,7 +13505,7 @@
     <row r="1003">
       <c r="B1003" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1003">
@@ -13570,7 +13570,7 @@
     <row r="1008">
       <c r="B1008" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1008">
@@ -13583,7 +13583,7 @@
     <row r="1009">
       <c r="B1009" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1009">
@@ -13609,7 +13609,7 @@
     <row r="1011">
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1011">
@@ -13648,7 +13648,7 @@
     <row r="1014">
       <c r="B1014" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1014">
@@ -13775,7 +13775,7 @@
     <row r="1023">
       <c r="B1023" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1023">
@@ -13814,7 +13814,7 @@
     <row r="1026">
       <c r="B1026" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1026">
@@ -13853,7 +13853,7 @@
     <row r="1029">
       <c r="B1029" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1029">
@@ -13944,7 +13944,7 @@
     <row r="1036">
       <c r="B1036" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1036">
@@ -14357,7 +14357,7 @@
     <row r="1067">
       <c r="B1067" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1067">
@@ -14557,7 +14557,7 @@
     <row r="1082">
       <c r="B1082" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1082">
@@ -14918,7 +14918,7 @@
     <row r="1109">
       <c r="B1109" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1109">
@@ -14957,7 +14957,7 @@
     <row r="1112">
       <c r="B1112" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1112">
@@ -14983,7 +14983,7 @@
     <row r="1114">
       <c r="B1114" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1114">
@@ -15144,7 +15144,7 @@
     <row r="1126">
       <c r="B1126" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1126">
@@ -15248,7 +15248,7 @@
     <row r="1134">
       <c r="B1134" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1134">
@@ -15274,7 +15274,7 @@
     <row r="1136">
       <c r="B1136" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1136">
@@ -15378,7 +15378,7 @@
     <row r="1144">
       <c r="B1144" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1144">
@@ -15463,7 +15463,7 @@
         <v>9</v>
       </c>
       <c r="D1150">
-        <v>0.0009513742071881607</v>
+        <v>0.0009513742071881608</v>
       </c>
     </row>
     <row r="1151">
@@ -15534,7 +15534,7 @@
     <row r="1156">
       <c r="B1156" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1156">
@@ -15547,7 +15547,7 @@
     <row r="1157">
       <c r="B1157" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1157">
@@ -15586,7 +15586,7 @@
     <row r="1160">
       <c r="B1160" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1160">
@@ -15599,7 +15599,7 @@
     <row r="1161">
       <c r="B1161" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1161">
@@ -15612,7 +15612,7 @@
     <row r="1162">
       <c r="B1162" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1162">
@@ -15684,7 +15684,7 @@
         <v>9</v>
       </c>
       <c r="D1167">
-        <v>0.0009513742071881607</v>
+        <v>0.0009513742071881608</v>
       </c>
     </row>
     <row r="1168">
@@ -15794,7 +15794,7 @@
     <row r="1176">
       <c r="B1176" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1176">
@@ -15859,7 +15859,7 @@
     <row r="1181">
       <c r="B1181" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1181">
@@ -15963,7 +15963,7 @@
     <row r="1189">
       <c r="B1189" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1189">
@@ -15989,7 +15989,7 @@
     <row r="1191">
       <c r="B1191" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1191">
@@ -16106,7 +16106,7 @@
     <row r="1200">
       <c r="B1200" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1200">
@@ -16340,7 +16340,7 @@
     <row r="1218">
       <c r="B1218" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1218">
@@ -16547,7 +16547,7 @@
         <v>9</v>
       </c>
       <c r="D1233">
-        <v>0.0009513742071881607</v>
+        <v>0.0009513742071881608</v>
       </c>
     </row>
     <row r="1234">
@@ -16792,7 +16792,7 @@
     <row r="1252">
       <c r="B1252" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1252">
@@ -16935,7 +16935,7 @@
     <row r="1263">
       <c r="B1263" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1263">
@@ -16948,7 +16948,7 @@
     <row r="1264">
       <c r="B1264" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1264">
@@ -17065,7 +17065,7 @@
     <row r="1273">
       <c r="B1273" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1273">
@@ -17078,7 +17078,7 @@
     <row r="1274">
       <c r="B1274" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1274">
@@ -17098,13 +17098,13 @@
         <v>9</v>
       </c>
       <c r="D1275">
-        <v>0.0009513742071881607</v>
+        <v>0.0009513742071881608</v>
       </c>
     </row>
     <row r="1276">
       <c r="B1276" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1276">
@@ -17203,41 +17203,6 @@
       </c>
       <c r="D1283">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1285">
-      <c r="A1285" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="1286">
-      <c r="A1286" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1287">
-      <c r="A1287" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1288">
-      <c r="A1288" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1289">
-      <c r="A1289" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>
